--- a/5 control volumes-2 hs/Nodalization-AP600-MELCOR.xlsx
+++ b/5 control volumes-2 hs/Nodalization-AP600-MELCOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="712" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="712" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="test section" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="FL207" sheetId="13" r:id="rId11"/>
     <sheet name="FL209" sheetId="14" r:id="rId12"/>
     <sheet name="FL210" sheetId="15" r:id="rId13"/>
+    <sheet name="Fl212" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
   <si>
     <t>total</t>
   </si>
@@ -122,6 +123,10 @@
   </si>
   <si>
     <t>Dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +524,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -529,8 +534,8 @@
         <v>23</v>
       </c>
       <c r="B1">
-        <f>(0.91/2+0.195/2)</f>
-        <v>0.55249999999999999</v>
+        <f>(0.91/2+(2.4384-0.91)/2/2)</f>
+        <v>0.83709999999999996</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -546,7 +551,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>1.2847999999999997</v>
+        <v>1.2847999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -555,7 +560,7 @@
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
-        <v>0.46498132004981324</v>
+        <v>0.46498132004981318</v>
       </c>
     </row>
   </sheetData>
@@ -619,6 +624,56 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <f>(0.91/2+(2.4384-0.91)/2/2)</f>
+        <v>0.83709999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.277368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2.1248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <f>4*B2/B3</f>
+        <v>0.52215361445783137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -629,8 +684,8 @@
         <v>23</v>
       </c>
       <c r="B1">
-        <f>(0.91/2+0.195/2)</f>
-        <v>0.55249999999999999</v>
+        <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
+        <v>0.76419999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -664,48 +719,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1">
-        <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
-        <v>0.76419999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <f>1.4/2</f>
+        <v>0.7</v>
+      </c>
+      <c r="D1">
+        <f>(2.4384-0.91)/2/2+(2.4384-0.91)/2</f>
+        <v>1.1463000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>0.277368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <f>(2.4384-0.91)/2*0.3048</f>
+        <v>0.23292816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>2.1248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <f>(2.4384-0.91)/2*2</f>
+        <v>1.5284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <f>4*B2/B3</f>
-        <v>0.52215361445783137</v>
+        <v>0.60960000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +780,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,8 +793,8 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <f>(2.4384-0.91)-0.195</f>
-        <v>1.3333999999999999</v>
+        <f>(2.4384-0.91)/2</f>
+        <v>0.76419999999999999</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -778,12 +839,12 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f>B7</f>
-        <v>0.44446666666666662</v>
+        <f>B1</f>
+        <v>0.76419999999999999</v>
       </c>
       <c r="J4">
-        <f>B7*B2*B3</f>
-        <v>0.18966281599999998</v>
+        <f>B1*B2*B3</f>
+        <v>0.32609942399999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -793,17 +854,6 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <f>B7*2</f>
-        <v>0.88893333333333324</v>
-      </c>
-      <c r="J5">
-        <f>J4*2</f>
-        <v>0.37932563199999997</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -813,17 +863,6 @@
         <f>B2*B3</f>
         <v>0.42671999999999999</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <f>B7*3</f>
-        <v>1.3333999999999999</v>
-      </c>
-      <c r="J6">
-        <f>J4*3</f>
-        <v>0.56898844799999992</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -831,7 +870,7 @@
       </c>
       <c r="B7">
         <f>B1/3</f>
-        <v>0.44446666666666662</v>
+        <v>0.25473333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -869,7 +908,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -879,8 +918,8 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <f>0.39/2</f>
-        <v>0.19500000000000001</v>
+        <f>(2.4384-0.91)/2</f>
+        <v>0.76419999999999999</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -931,8 +970,8 @@
         <v>1.5284</v>
       </c>
       <c r="J4">
-        <f>B7*B2*B3</f>
-        <v>2.9123639999999996E-2</v>
+        <f>B1*B2*B3</f>
+        <v>0.11413479839999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -958,7 +997,7 @@
       </c>
       <c r="B7">
         <f>B1/B5</f>
-        <v>0.19500000000000001</v>
+        <v>0.76419999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1117,7 +1156,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1348,24 +1387,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1">
-        <f>0.39/2</f>
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <f>(2.4384-0.91)/2</f>
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1">
+        <f>B1*B2*B3</f>
+        <v>0.21196462560000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1419,7 @@
         <v>0.30480000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1428,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1390,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1399,16 +1445,16 @@
         <v>0.277368</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <f>B1/B5</f>
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.76419999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1463,7 @@
         <v>2.1248</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1484,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1451,7 +1497,7 @@
         <v>23</v>
       </c>
       <c r="B1">
-        <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
+        <f>(2.4384-0.91)/2</f>
         <v>0.76419999999999999</v>
       </c>
     </row>
@@ -1460,6 +1506,7 @@
         <v>24</v>
       </c>
       <c r="B2">
+        <f>(1.4-0.91)*0.3048</f>
         <v>0.14935199999999998</v>
       </c>
     </row>
@@ -1468,6 +1515,7 @@
         <v>25</v>
       </c>
       <c r="B3">
+        <f>(1.4-0.91)*2+0.3048</f>
         <v>1.2847999999999997</v>
       </c>
     </row>
